--- a/test/outputs/result_2048_1024_22050.xlsx
+++ b/test/outputs/result_2048_1024_22050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/StudioProjects/chord/test/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA0EAC8-8100-4C44-9DD4-C6224C553B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659090A6-C568-1445-AD08-CC6AE78A6DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12060" yWindow="880" windowWidth="22720" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13112,8 +13112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:DW805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BL26" sqref="BL26"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="DK20" sqref="DK20:DO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
